--- a/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
@@ -655,7 +655,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42334711286089233"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -725,37 +732,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47727272700000001</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47727272700000001</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47727272700000001</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47727272700000001</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35897435900000002</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35897435900000002</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35897435900000002</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,40 +800,40 @@
             <c:numRef>
               <c:f>Output!$F$2:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.39042741113062174</c:v>
+                  <c:v>17.600000000001454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39042741113061641</c:v>
+                  <c:v>17.600000000001454</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39042741113061952</c:v>
+                  <c:v>17.600000000000222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39042741113061419</c:v>
+                  <c:v>17.600000000000222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39042741113062174</c:v>
+                  <c:v>17.600000000001561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39042741113061641</c:v>
+                  <c:v>17.600000000001561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39042741113061952</c:v>
+                  <c:v>17.600000000000328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39042741113061419</c:v>
+                  <c:v>17.600000000000328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39042741113062174</c:v>
+                  <c:v>17.600000000001337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39042741113061641</c:v>
+                  <c:v>17.600000000001337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39042741113061952</c:v>
+                  <c:v>17.600000000000104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,16 +1583,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1873,7 +1880,7 @@
   <dimension ref="A1:N331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,26 +1913,26 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0.35</v>
-      </c>
-      <c r="F2" s="3">
-        <f>$H$2+A2*$H$3+B2*$H$4+C2*$H$5</f>
-        <v>0.39042741113062174</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <f>$H$2+A2*$H$3+B2*$H$4+C2*$H$5+$D$2*$H$6</f>
+        <v>17.600000000001454</v>
       </c>
       <c r="H2">
-        <v>0.41127367424255112</v>
+        <v>17.600000000009118</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -1936,98 +1943,98 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F12" si="0">$H$2+A3*$H$3+B3*$H$4+C3*$H$5</f>
-        <v>0.39042741113061641</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="0">$H$2+A3*$H$3+B3*$H$4+C3*$H$5+$D$2*$H$6</f>
+        <v>17.600000000001454</v>
       </c>
       <c r="H3" s="3">
-        <v>-1.9853583916083051E-2</v>
+        <v>-2.8973648876929661E-13</v>
       </c>
       <c r="J3" s="1">
-        <f>AVERAGE(E2:E12)</f>
-        <v>0.39872854409090908</v>
+        <f>AVERAGE(E2:E80)</f>
+        <v>17.594936708860761</v>
       </c>
       <c r="K3" s="1">
-        <f>AVERAGE(F2:F12)</f>
-        <v>0.39042741113061835</v>
+        <f>AVERAGE(F2:F80)</f>
+        <v>17.600000000000854</v>
       </c>
       <c r="M3">
         <f>(E2-$J$3)^2</f>
-        <v>2.3744710092196719E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N3">
         <f>(F2-$K$3)^2</f>
-        <v>1.1466216516903847E-29</v>
+        <v>3.6049050102427709E-25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.35</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061952</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
       </c>
       <c r="H4" s="3">
-        <v>-4.4408920985006262E-16</v>
+        <v>1.5639190622842585E-13</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M67" si="1">(E3-$J$3)^2</f>
-        <v>2.3744710092196719E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N4">
         <f>(F3-$K$3)^2</f>
-        <v>3.7748226909989823E-30</v>
+        <v>3.6049050102427709E-25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0.35</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061419</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
       </c>
       <c r="H5">
-        <v>-5.3290705182007514E-15</v>
+        <v>-3.0877522760874866E-12</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -2037,568 +2044,1907 @@
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>2.3744710092196719E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N67" si="2">(F4-$K$3)^2</f>
-        <v>1.3589361687596336E-30</v>
+        <v>3.9990830273636061E-25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>0.47727272700000001</v>
-      </c>
-      <c r="F6" s="3">
-        <f>$H$2+A6*$H$3+B6*$H$4+C6*$H$5</f>
-        <v>0.39042741113062174</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>-2.8421709430404007E-14</v>
       </c>
       <c r="J6">
-        <f>SUM(M3:M433)/ 520</f>
-        <v>1.7375920987926639E-2</v>
+        <f>SUM(M3:M433)/ 80</f>
+        <v>17.951974843775037</v>
       </c>
       <c r="K6">
-        <f>SUM(N3:N433)/520</f>
-        <v>8.5011025721202851E-3</v>
+        <f>SUM(N3:N433)/80</f>
+        <v>1.9308727496041245E-25</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>2.3744710092196719E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>1.7333369499485123E-29</v>
+        <v>3.9990830273636061E-25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.47727272700000001</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061641</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>6.1691886688567321E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>1.1466216516903847E-29</v>
+        <v>4.9983489132251662E-25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.47727272700000001</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061952</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>6.1691886688567321E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>3.7748226909989823E-30</v>
+        <v>4.9983489132251662E-25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1.6</v>
       </c>
       <c r="C9">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0.47727272700000001</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061419</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
       </c>
       <c r="J9">
         <f>(J6+K6)/2</f>
-        <v>1.2938511780023462E-2</v>
+        <v>8.9759874218875186</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>6.1691886688567321E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>1.3589361687596336E-30</v>
+        <v>2.7646734828737668E-25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.35897435900000002</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113062174</v>
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>6.1691886688567321E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>1.7333369499485123E-29</v>
+        <v>2.7646734828737668E-25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0.35897435900000002</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061641</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>1.5803952322422559E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>1.1466216516903847E-29</v>
+        <v>2.3345234084748535E-25</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.35897435900000002</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.39042741113061952</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
       </c>
       <c r="J12" s="2">
         <f>SQRT(((J3-K3)^2*320)/J9)</f>
-        <v>1.3054799207579579</v>
+        <v>3.0231992530333283E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>1.5803952322422559E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>3.7748226909989823E-30</v>
+        <v>2.3345234084748535E-25</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="3"/>
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>0.9</v>
+      </c>
+      <c r="C13">
+        <v>2.9</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>1.5803952322422559E-3</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>1.3589361687596336E-30</v>
+        <v>5.6193402178151467E-25</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="3"/>
+      <c r="A14">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>1.6</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
+        <v>5.6193402178151467E-25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="3"/>
+      <c r="A15">
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <v>1.6</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
+        <v>3.4780561766832322E-25</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="3"/>
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <v>1.6</v>
+      </c>
+      <c r="C16">
+        <v>2.9</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
+        <v>3.4780561766832322E-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>1.6</v>
+      </c>
+      <c r="C17">
+        <v>2.9</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="3"/>
+        <v>4.1350195385512908E-25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.1</v>
+      </c>
+      <c r="B18">
+        <v>0.9</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <f>$H$2+A18*$H$3+B18*$H$4+C18*$H$5+$D$2*$H$6</f>
+        <v>17.600000000001454</v>
+      </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.16407626982855197</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
+        <v>4.1350195385512908E-25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.1</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
+        <v>3.6049050102427709E-25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.1</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>2.9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
+        <v>3.6049050102427709E-25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <v>0.9</v>
+      </c>
+      <c r="C21">
+        <v>2.9</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
+        <v>3.9990830273636061E-25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.1</v>
+      </c>
+      <c r="B22">
+        <v>1.6</v>
+      </c>
+      <c r="C22">
+        <v>2.5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="3"/>
+        <v>3.9990830273636061E-25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>1.6</v>
+      </c>
+      <c r="C23">
+        <v>2.5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
+        <v>4.9983489132251662E-25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>1.6</v>
+      </c>
+      <c r="C24">
+        <v>2.9</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
+        <v>4.9983489132251662E-25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.1</v>
+      </c>
+      <c r="B25">
+        <v>1.6</v>
+      </c>
+      <c r="C25">
+        <v>2.9</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
+        <v>2.7646734828737668E-25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.5</v>
+      </c>
+      <c r="B26">
+        <v>0.9</v>
+      </c>
+      <c r="C26">
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
+        <v>2.7646734828737668E-25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="3"/>
+        <v>2.3345234084748535E-25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.5</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>2.9</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
+        <v>2.3345234084748535E-25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.5</v>
+      </c>
+      <c r="B29">
+        <v>0.9</v>
+      </c>
+      <c r="C29">
+        <v>2.9</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
+        <v>5.6193402178151467E-25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="B30">
+        <v>1.6</v>
+      </c>
+      <c r="C30">
+        <v>2.5</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F31" s="3"/>
+        <v>5.6193402178151467E-25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.5</v>
+      </c>
+      <c r="B31">
+        <v>1.6</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F32" s="3"/>
+        <v>3.4780561766832322E-25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="B32">
+        <v>1.6</v>
+      </c>
+      <c r="C32">
+        <v>2.9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F33" s="3"/>
+        <v>3.4780561766832322E-25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>1.6</v>
+      </c>
+      <c r="C33">
+        <v>2.9</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
+        <v>4.1350195385512908E-25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.1</v>
+      </c>
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>2.5438231052715956</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
+        <v>4.1350195385512908E-25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.1</v>
+      </c>
+      <c r="B35">
+        <v>0.9</v>
+      </c>
+      <c r="C35">
+        <v>2.5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
+        <v>3.6049050102427709E-25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.1</v>
+      </c>
+      <c r="B36">
+        <v>0.9</v>
+      </c>
+      <c r="C36">
+        <v>2.9</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
+        <v>3.6049050102427709E-25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.1</v>
+      </c>
+      <c r="B37">
+        <v>0.9</v>
+      </c>
+      <c r="C37">
+        <v>2.9</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
+        <v>3.9990830273636061E-25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.1</v>
+      </c>
+      <c r="B38">
+        <v>1.6</v>
+      </c>
+      <c r="C38">
+        <v>2.5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F39" s="3"/>
+        <v>3.9990830273636061E-25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <v>1.6</v>
+      </c>
+      <c r="C39">
+        <v>2.5</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="3"/>
+        <v>4.9983489132251662E-25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.1</v>
+      </c>
+      <c r="B40">
+        <v>1.6</v>
+      </c>
+      <c r="C40">
+        <v>2.9</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
+        <v>4.9983489132251662E-25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.1</v>
+      </c>
+      <c r="B41">
+        <v>1.6</v>
+      </c>
+      <c r="C41">
+        <v>2.9</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+        <v>2.7646734828737668E-25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.5</v>
+      </c>
+      <c r="B42">
+        <v>0.9</v>
+      </c>
+      <c r="C42">
+        <v>2.5</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>0.15898445187285604</v>
+        <v>0.35394968755007378</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>0.15243356336215688</v>
+        <v>2.7646734828737668E-25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.5</v>
+      </c>
+      <c r="B43">
+        <v>0.9</v>
+      </c>
+      <c r="C43">
+        <v>2.5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.5</v>
+      </c>
+      <c r="B44">
+        <v>0.9</v>
+      </c>
+      <c r="C44">
+        <v>2.9</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.5</v>
+      </c>
+      <c r="B45">
+        <v>0.9</v>
+      </c>
+      <c r="C45">
+        <v>2.9</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>17</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.5</v>
+      </c>
+      <c r="B46">
+        <v>1.6</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.5</v>
+      </c>
+      <c r="B47">
+        <v>1.6</v>
+      </c>
+      <c r="C47">
+        <v>2.5</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.5</v>
+      </c>
+      <c r="B48">
+        <v>1.6</v>
+      </c>
+      <c r="C48">
+        <v>2.9</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.5</v>
+      </c>
+      <c r="B49">
+        <v>1.6</v>
+      </c>
+      <c r="C49">
+        <v>2.9</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.1</v>
+      </c>
+      <c r="B50">
+        <v>0.9</v>
+      </c>
+      <c r="C50">
+        <v>2.5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.1</v>
+      </c>
+      <c r="B51">
+        <v>0.9</v>
+      </c>
+      <c r="C51">
+        <v>2.5</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>19</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.1</v>
+      </c>
+      <c r="B52">
+        <v>0.9</v>
+      </c>
+      <c r="C52">
+        <v>2.9</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>19</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.1</v>
+      </c>
+      <c r="B53">
+        <v>0.9</v>
+      </c>
+      <c r="C53">
+        <v>2.9</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.1</v>
+      </c>
+      <c r="B54">
+        <v>1.6</v>
+      </c>
+      <c r="C54">
+        <v>2.5</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.1</v>
+      </c>
+      <c r="B55">
+        <v>1.6</v>
+      </c>
+      <c r="C55">
+        <v>2.5</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.1</v>
+      </c>
+      <c r="B56">
+        <v>1.6</v>
+      </c>
+      <c r="C56">
+        <v>2.9</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>19</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.1</v>
+      </c>
+      <c r="B57">
+        <v>1.6</v>
+      </c>
+      <c r="C57">
+        <v>2.9</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.5</v>
+      </c>
+      <c r="B58">
+        <v>0.9</v>
+      </c>
+      <c r="C58">
+        <v>2.5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>19</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.5</v>
+      </c>
+      <c r="B59">
+        <v>0.9</v>
+      </c>
+      <c r="C59">
+        <v>2.5</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.5</v>
+      </c>
+      <c r="B60">
+        <v>0.9</v>
+      </c>
+      <c r="C60">
+        <v>2.9</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.5</v>
+      </c>
+      <c r="B61">
+        <v>0.9</v>
+      </c>
+      <c r="C61">
+        <v>2.9</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.5</v>
+      </c>
+      <c r="B62">
+        <v>1.6</v>
+      </c>
+      <c r="C62">
+        <v>2.5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>19</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.5</v>
+      </c>
+      <c r="B63">
+        <v>1.6</v>
+      </c>
+      <c r="C63">
+        <v>2.5</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.5</v>
+      </c>
+      <c r="B64">
+        <v>1.6</v>
+      </c>
+      <c r="C64">
+        <v>2.9</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.5</v>
+      </c>
+      <c r="B65">
+        <v>1.6</v>
+      </c>
+      <c r="C65">
+        <v>2.9</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>19</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000000211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.1</v>
+      </c>
+      <c r="B66">
+        <v>0.9</v>
+      </c>
+      <c r="C66">
+        <v>2.5</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>17.600000000001454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.1</v>
+      </c>
+      <c r="B67">
+        <v>0.9</v>
+      </c>
+      <c r="C67">
+        <v>2.5</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F80" si="3">$H$2+A67*$H$3+B67*$H$4+C67*$H$5+$D$2*$H$6</f>
+        <v>17.600000000001454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.1</v>
+      </c>
+      <c r="B68">
+        <v>0.9</v>
+      </c>
+      <c r="C68">
+        <v>2.9</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.1</v>
+      </c>
+      <c r="B69">
+        <v>0.9</v>
+      </c>
+      <c r="C69">
+        <v>2.9</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.1</v>
+      </c>
+      <c r="B70">
+        <v>1.6</v>
+      </c>
+      <c r="C70">
+        <v>2.5</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.1</v>
+      </c>
+      <c r="B71">
+        <v>1.6</v>
+      </c>
+      <c r="C71">
+        <v>2.5</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.1</v>
+      </c>
+      <c r="B72">
+        <v>1.6</v>
+      </c>
+      <c r="C72">
+        <v>2.9</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.1</v>
+      </c>
+      <c r="B73">
+        <v>1.6</v>
+      </c>
+      <c r="C73">
+        <v>2.9</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.5</v>
+      </c>
+      <c r="B74">
+        <v>0.9</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.5</v>
+      </c>
+      <c r="B75">
+        <v>0.9</v>
+      </c>
+      <c r="C75">
+        <v>2.5</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.5</v>
+      </c>
+      <c r="B76">
+        <v>0.9</v>
+      </c>
+      <c r="C76">
+        <v>2.9</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.5</v>
+      </c>
+      <c r="B77">
+        <v>0.9</v>
+      </c>
+      <c r="C77">
+        <v>2.9</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.5</v>
+      </c>
+      <c r="B78">
+        <v>1.6</v>
+      </c>
+      <c r="C78">
+        <v>2.5</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.5</v>
+      </c>
+      <c r="B79">
+        <v>1.6</v>
+      </c>
+      <c r="C79">
+        <v>2.5</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000001444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.5</v>
+      </c>
+      <c r="B80">
+        <v>1.6</v>
+      </c>
+      <c r="C80">
+        <v>2.9</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="3"/>
+        <v>17.600000000000211</v>
       </c>
     </row>
     <row r="329" spans="8:13" x14ac:dyDescent="0.25">
@@ -2627,37 +3973,37 @@
       </c>
       <c r="I330">
         <f>SUM(A2:A325)</f>
-        <v>11.550000000000002</v>
+        <v>23.500000000000004</v>
       </c>
       <c r="J330">
         <f>SUM(B2:B325)</f>
-        <v>80</v>
+        <v>98.399999999999991</v>
       </c>
       <c r="K330">
-        <f t="shared" ref="K330:M330" si="3">SUM(C2:C325)</f>
-        <v>87.5</v>
+        <f t="shared" ref="K330:M330" si="4">SUM(C2:C325)</f>
+        <v>213.10000000000014</v>
       </c>
       <c r="L330">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>197</v>
       </c>
       <c r="M330">
-        <f t="shared" si="3"/>
-        <v>4.3860139849999999</v>
+        <f t="shared" si="4"/>
+        <v>1390</v>
       </c>
     </row>
     <row r="331" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H331">
         <f>I330</f>
-        <v>11.550000000000002</v>
+        <v>23.500000000000004</v>
       </c>
       <c r="I331">
         <f>SUMPRODUCT(A3:A325,A3:A325)</f>
-        <v>11.024999999999999</v>
+        <v>10.139999999999993</v>
       </c>
       <c r="J331">
         <f>SUMPRODUCT(A3:A325,B3:B325)</f>
-        <v>78.75</v>
+        <v>29.11</v>
       </c>
     </row>
   </sheetData>

--- a/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Y''</t>
   </si>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -579,9 +579,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -659,8 +659,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42334711286089233"/>
-          <c:y val="0"/>
+          <c:x val="0.29001377952755902"/>
+          <c:y val="4.1666666666666664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -727,10 +727,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$E$2:$E$12</c:f>
+              <c:f>Output!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -738,31 +738,118 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="32">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="35">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,42 +885,129 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$F$2:$F$12</c:f>
+              <c:f>Output!$F$2:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>17.600000000001454</c:v>
+                  <c:v>18.151712676298676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.600000000001454</c:v>
+                  <c:v>18.044823665395725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.600000000000222</c:v>
+                  <c:v>17.147337359796616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.600000000000222</c:v>
+                  <c:v>17.761681802986629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.600000000001561</c:v>
+                  <c:v>18.210424955786184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.600000000001561</c:v>
+                  <c:v>18.044823665395725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.600000000000328</c:v>
+                  <c:v>17.147337359796616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.600000000000328</c:v>
+                  <c:v>18.044823665395725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.600000000001337</c:v>
+                  <c:v>18.10353594488323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.600000000001337</c:v>
+                  <c:v>18.044823665395725</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.600000000000104</c:v>
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.596080512596171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.147337359796616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.044823665395725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.147337359796616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.151712676298676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.654792792083676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.654792792083676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.654792792083676</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.10353594488323</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.151712676298676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.254226370699563</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.210424955786184</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.702969523499121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.654792792083676</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.254226370699563</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.254226370699563</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.596080512596171</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.596080512596171</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.10353594488323</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.044823665395725</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.206049639284117</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.210424955786184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.147337359796616</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.147337359796616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.044823665395725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1583,16 +1757,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1880,7 +2054,7 @@
   <dimension ref="A1:N331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,13 +2087,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1927,12 +2101,12 @@
       <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f>$H$2+A2*$H$3+B2*$H$4+C2*$H$5+$D$2*$H$6</f>
-        <v>17.600000000001454</v>
-      </c>
-      <c r="H2">
-        <v>17.600000000009118</v>
+        <v>18.151712676298676</v>
+      </c>
+      <c r="H2" s="3">
+        <v>28.593243661593164</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -1943,98 +2117,98 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">$H$2+A3*$H$3+B3*$H$4+C3*$H$5+$D$2*$H$6</f>
-        <v>17.600000000001454</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="H3" s="3">
-        <v>-2.8973648876929661E-13</v>
-      </c>
-      <c r="J3" s="1">
-        <f>AVERAGE(E2:E80)</f>
-        <v>17.594936708860761</v>
-      </c>
-      <c r="K3" s="1">
-        <f>AVERAGE(F2:F80)</f>
-        <v>17.600000000000854</v>
+        <v>-5.8712279487505903E-2</v>
+      </c>
+      <c r="J3">
+        <f>SUM(E2:E81)/160</f>
+        <v>9.9875000000000007</v>
+      </c>
+      <c r="K3">
+        <f>SUM(F2:F81)/160</f>
+        <v>8.8448160610728515</v>
       </c>
       <c r="M3">
         <f>(E2-$J$3)^2</f>
-        <v>0.16407626982855197</v>
+        <v>64.200156249999992</v>
       </c>
       <c r="N3">
         <f>(F2-$K$3)^2</f>
-        <v>3.6049050102427709E-25</v>
+        <v>86.618324606501901</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
+        <v>17.147337359796616</v>
       </c>
       <c r="H4" s="3">
-        <v>1.5639190622842585E-13</v>
+        <v>-0.10688901090295211</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="1">(E3-$J$3)^2</f>
-        <v>0.16407626982855197</v>
+        <f>(E3-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N4">
         <f>(F3-$K$3)^2</f>
-        <v>3.6049050102427709E-25</v>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
-      </c>
-      <c r="H5">
-        <v>-3.0877522760874866E-12</v>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.44874315279955601</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -2043,338 +2217,339 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E4-$J$3)^2</f>
+        <v>225.37515624999997</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N67" si="2">(F4-$K$3)^2</f>
-        <v>3.9990830273636061E-25</v>
+        <f>(F4-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
-      </c>
-      <c r="H6">
-        <v>-2.8421709430404007E-14</v>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-4.6598655549087056</v>
       </c>
       <c r="J6">
-        <f>SUM(M3:M433)/ 80</f>
-        <v>17.951974843775037</v>
+        <f>SUM(M3:M161)/ 160</f>
+        <v>103.19265527343762</v>
       </c>
       <c r="K6">
-        <f>SUM(N3:N433)/80</f>
-        <v>1.9308727496041245E-25</v>
+        <f>SUM(N3:N161)/160</f>
+        <v>77.063586734256972</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E5-$J$3)^2</f>
+        <v>49.175156249999993</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
-        <v>3.9990830273636061E-25</v>
+        <f>(F5-$K$3)^2</f>
+        <v>79.510494659315555</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E6-$J$3)^2</f>
+        <v>121.27515624999998</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F6-$K$3)^2</f>
+        <v>87.71462996873349</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>17.147337359796616</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E7-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F7-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="J9">
         <f>(J6+K6)/2</f>
-        <v>8.9759874218875186</v>
+        <v>90.128121003847298</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E8-$J$3)^2</f>
+        <v>256.40015624999995</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F8-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>18.10353594488323</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E9-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F9-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="J11" t="s">
         <v>6</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E10-$J$3)^2</f>
+        <v>169.32515624999999</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>2.3345234084748535E-25</v>
+        <f>(F10-$K$3)^2</f>
+        <v>85.723893886865667</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
-      </c>
-      <c r="J12" s="2">
-        <f>SQRT(((J3-K3)^2*320)/J9)</f>
-        <v>3.0231992530333283E-2</v>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="J12" s="1">
+        <f>SQRT(((J3-K3)^2*160)/J9)</f>
+        <v>1.5224952838363839</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E11-$J$3)^2</f>
+        <v>81.225156249999984</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>2.3345234084748535E-25</v>
+        <f>(F11-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
+        <v>17.596080512596171</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E12-$J$3)^2</f>
+        <v>25.125156249999993</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>5.6193402178151467E-25</v>
+        <f>(F12-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
-      </c>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E13-$J$3)^2</f>
+        <v>100.25015624999999</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>5.6193402178151467E-25</v>
+        <f>(F13-$K$3)^2</f>
+        <v>76.584629500495737</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E14-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>3.4780561766832322E-25</v>
+        <f>(F14-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2382,463 +2557,477 @@
       <c r="E16">
         <v>18</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
+        <v>17.147337359796616</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E15-$J$3)^2</f>
+        <v>225.37515624999997</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
-        <v>3.4780561766832322E-25</v>
+        <f>(F15-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
+        <v>18.151712676298676</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E16-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>4.1350195385512908E-25</v>
+        <f>(F16-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
         <f>$H$2+A18*$H$3+B18*$H$4+C18*$H$5+$D$2*$H$6</f>
-        <v>17.600000000001454</v>
+        <v>17.654792792083676</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0.16407626982855197</v>
+        <f>(E17-$J$3)^2</f>
+        <v>121.27515624999998</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
-        <v>4.1350195385512908E-25</v>
+        <f>(F17-$K$3)^2</f>
+        <v>86.618324606501901</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E18-$J$3)^2</f>
+        <v>49.175156249999993</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
-        <v>3.6049050102427709E-25</v>
+        <f>(F18-$K$3)^2</f>
+        <v>77.615690000952171</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="J20" s="2">
+        <f>AVERAGE(E19:E178)</f>
+        <v>19.706293706293707</v>
+      </c>
+      <c r="K20" s="2">
+        <f>AVERAGE(F19:F178)</f>
+        <v>17.630631858218663</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E19-$J$3)^2</f>
+        <v>196.35015624999997</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
-        <v>3.6049050102427709E-25</v>
+        <f>(F19-$K$3)^2</f>
+        <v>77.615690000952171</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
+        <v>17.206049639284117</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E20-$J$3)^2</f>
+        <v>121.27515624999998</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
-        <v>3.9990830273636061E-25</v>
+        <f>(F20-$K$3)^2</f>
+        <v>77.615690000952171</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>16</v>
-      </c>
-      <c r="F22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
+        <v>18.10353594488323</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E21-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
-        <v>3.9990830273636061E-25</v>
+        <f>(F21-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
+        <v>18.151712676298676</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E22-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F22-$K$3)^2</f>
+        <v>85.723893886865667</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>17.254226370699563</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E23-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F23-$K$3)^2</f>
+        <v>86.618324606501901</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>17.206049639284117</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E24-$J$3)^2</f>
+        <v>196.35015624999997</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F24-$K$3)^2</f>
+        <v>70.718181755656019</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>18.210424955786184</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E25-$J$3)^2</f>
+        <v>196.35015624999997</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F25-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>16</v>
-      </c>
-      <c r="F27" s="2">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>17.702969523499121</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E26-$J$3)^2</f>
+        <v>169.32515624999999</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
-        <v>2.3345234084748535E-25</v>
+        <f>(F26-$K$3)^2</f>
+        <v>87.71462996873349</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
+        <v>17.654792792083676</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E27-$J$3)^2</f>
+        <v>81.225156249999984</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
-        <v>2.3345234084748535E-25</v>
+        <f>(F27-$K$3)^2</f>
+        <v>78.466882763894503</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>16</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
+        <v>17.254226370699563</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E28-$J$3)^2</f>
+        <v>81.225156249999984</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
-        <v>5.6193402178151467E-25</v>
+        <f>(F28-$K$3)^2</f>
+        <v>77.615690000952171</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30" s="2">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
+        <v>17.254226370699563</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E29-$J$3)^2</f>
+        <v>36.150156249999995</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
-        <v>5.6193402178151467E-25</v>
+        <f>(F29-$K$3)^2</f>
+        <v>70.718181755656019</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
+        <v>17.596080512596171</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E30-$J$3)^2</f>
+        <v>81.225156249999984</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
-        <v>3.4780561766832322E-25</v>
+        <f>(F30-$K$3)^2</f>
+        <v>70.718181755656019</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2846,289 +3035,289 @@
       <c r="E32">
         <v>16</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
+        <v>17.596080512596171</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E31-$J$3)^2</f>
+        <v>169.32515624999999</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
-        <v>3.4780561766832322E-25</v>
+        <f>(F31-$K$3)^2</f>
+        <v>76.584629500495737</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>16</v>
-      </c>
-      <c r="F33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
+        <v>17.206049639284117</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E32-$J$3)^2</f>
+        <v>36.150156249999995</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
-        <v>4.1350195385512908E-25</v>
+        <f>(F32-$K$3)^2</f>
+        <v>76.584629500495737</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
+        <v>18.10353594488323</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
-        <v>2.5438231052715956</v>
+        <f>(E33-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
-        <v>4.1350195385512908E-25</v>
+        <f>(F33-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>17</v>
-      </c>
-      <c r="F35" s="2">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
+        <v>17.206049639284117</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E34-$J$3)^2</f>
+        <v>169.32515624999999</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
-        <v>3.6049050102427709E-25</v>
+        <f>(F34-$K$3)^2</f>
+        <v>85.723893886865667</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>17</v>
-      </c>
-      <c r="F36" s="2">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E35-$J$3)^2</f>
+        <v>81.225156249999984</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
-        <v>3.6049050102427709E-25</v>
+        <f>(F35-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>17</v>
-      </c>
-      <c r="F37" s="2">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
+        <v>17.206049639284117</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E36-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
-        <v>3.9990830273636061E-25</v>
+        <f>(F36-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>17</v>
-      </c>
-      <c r="F38" s="2">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
+        <v>18.210424955786184</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E37-$J$3)^2</f>
+        <v>64.200156249999992</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
-        <v>3.9990830273636061E-25</v>
+        <f>(F37-$K$3)^2</f>
+        <v>69.910226949407573</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
+        <v>17.147337359796616</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E38-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F38-$K$3)^2</f>
+        <v>87.71462996873349</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>17.147337359796616</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E39-$J$3)^2</f>
+        <v>25.125156249999993</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
-        <v>4.9983489132251662E-25</v>
+        <f>(F39-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>17</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
+        <v>18.044823665395725</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E40-$J$3)^2</f>
+        <v>144.30015624999999</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F40-$K$3)^2</f>
+        <v>68.931859915761748</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3136,133 +3325,173 @@
       <c r="E42">
         <v>17</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>17.254226370699563</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
-        <v>0.35394968755007378</v>
+        <f>(E41-$J$3)^2</f>
+        <v>49.175156249999993</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
-        <v>2.7646734828737668E-25</v>
+        <f>(F41-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>17</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M43">
+        <f>(E42-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N43">
+        <f>(F42-$K$3)^2</f>
+        <v>70.718181755656019</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>17</v>
-      </c>
-      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M44">
+        <f>(E43-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N44">
+        <f>(F43-$K$3)^2</f>
+        <v>79.510494659315555</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>17</v>
-      </c>
-      <c r="F45" s="2">
+        <v>22</v>
+      </c>
+      <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M45">
+        <f>(E44-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N45">
+        <f>(F44-$K$3)^2</f>
+        <v>84.64013991959871</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>17</v>
-      </c>
-      <c r="F46" s="2">
+        <v>21</v>
+      </c>
+      <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M46">
+        <f>(E45-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N46">
+        <f>(F45-$K$3)^2</f>
+        <v>76.584629500495737</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>17</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M47">
+        <f>(E46-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N47">
+        <f>(F46-$K$3)^2</f>
+        <v>79.510494659315555</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3270,461 +3499,637 @@
       <c r="E48">
         <v>17</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M48">
+        <f>(E47-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N48">
+        <f>(F47-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>17</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M49">
+        <f>(E48-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N49">
+        <f>(F48-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50">
-        <v>19</v>
-      </c>
-      <c r="F50" s="2">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M50">
+        <f>(E49-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N50">
+        <f>(F49-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M51">
+        <f>(E50-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N51">
+        <f>(F50-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="E51">
-        <v>19</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.1</v>
-      </c>
-      <c r="B52">
-        <v>0.9</v>
-      </c>
-      <c r="C52">
-        <v>2.9</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>19</v>
-      </c>
-      <c r="F52" s="2">
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M52">
+        <f>(E51-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N52">
+        <f>(F51-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.1</v>
-      </c>
-      <c r="B53">
-        <v>0.9</v>
-      </c>
-      <c r="C53">
-        <v>2.9</v>
-      </c>
-      <c r="D53">
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M53">
+        <f>(E52-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N53">
+        <f>(F52-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M54">
+        <f>(E53-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N54">
+        <f>(F53-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M55">
+        <f>(E54-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N55">
+        <f>(F54-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M56">
+        <f>(E55-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N56">
+        <f>(F55-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="E53">
-        <v>19</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+      <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.1</v>
-      </c>
-      <c r="B54">
-        <v>1.6</v>
-      </c>
-      <c r="C54">
-        <v>2.5</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>19</v>
-      </c>
-      <c r="F54" s="2">
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M57">
+        <f>(E56-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N57">
+        <f>(F56-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>27</v>
+      </c>
+      <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0.1</v>
-      </c>
-      <c r="B55">
-        <v>1.6</v>
-      </c>
-      <c r="C55">
-        <v>2.5</v>
-      </c>
-      <c r="D55">
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M58">
+        <f>(E57-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N58">
+        <f>(F57-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>3</v>
       </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0.1</v>
-      </c>
-      <c r="B56">
-        <v>1.6</v>
-      </c>
-      <c r="C56">
-        <v>2.9</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>19</v>
-      </c>
-      <c r="F56" s="2">
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M59">
+        <f>(E58-$J$3)^2</f>
+        <v>289.42515624999999</v>
+      </c>
+      <c r="N59">
+        <f>(F58-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.1</v>
-      </c>
-      <c r="B57">
-        <v>1.6</v>
-      </c>
-      <c r="C57">
-        <v>2.9</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>19</v>
-      </c>
-      <c r="F57" s="2">
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M60">
+        <f>(E59-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N60">
+        <f>(F59-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.5</v>
-      </c>
-      <c r="B58">
-        <v>0.9</v>
-      </c>
-      <c r="C58">
-        <v>2.5</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>19</v>
-      </c>
-      <c r="F58" s="2">
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M61">
+        <f>(E60-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N61">
+        <f>(F60-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0.5</v>
-      </c>
-      <c r="B59">
-        <v>0.9</v>
-      </c>
-      <c r="C59">
-        <v>2.5</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>19</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000001337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0.5</v>
-      </c>
-      <c r="B60">
-        <v>0.9</v>
-      </c>
-      <c r="C60">
-        <v>2.9</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>19</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>0.5</v>
-      </c>
-      <c r="B61">
-        <v>0.9</v>
-      </c>
-      <c r="C61">
-        <v>2.9</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-      <c r="E61">
-        <v>19</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000000104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0.5</v>
-      </c>
-      <c r="B62">
-        <v>1.6</v>
-      </c>
-      <c r="C62">
-        <v>2.5</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>19</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M62">
+        <f>(E61-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N62">
+        <f>(F61-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>19</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000001444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M63">
+        <f>(E62-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N63">
+        <f>(F62-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>19</v>
-      </c>
-      <c r="F64" s="2">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M64">
+        <f>(E63-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N64">
+        <f>(F63-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M65">
+        <f>(E64-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N65">
+        <f>(F64-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M66">
+        <f>(E65-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N66">
+        <f>(F65-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
         <v>3</v>
       </c>
-      <c r="E65">
-        <v>19</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000000211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0.1</v>
-      </c>
-      <c r="B66">
-        <v>0.9</v>
-      </c>
-      <c r="C66">
-        <v>2.5</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>18</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="0"/>
-        <v>17.600000000001454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.1</v>
-      </c>
-      <c r="B67">
-        <v>0.9</v>
-      </c>
-      <c r="C67">
-        <v>2.5</v>
-      </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" ref="F67:F80" si="3">$H$2+A67*$H$3+B67*$H$4+C67*$H$5+$D$2*$H$6</f>
-        <v>17.600000000001454</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F130" si="1">$H$2+A67*$H$3+B67*$H$4+C67*$H$5+$D$2*$H$6</f>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M67">
+        <f>(E66-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N67">
+        <f>(F66-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B68">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="1"/>
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M68">
+        <f>(E67-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N68">
+        <f>(F67-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B69">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M69">
+        <f>(E68-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N69">
+        <f>(F68-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B70">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3732,167 +4137,231 @@
       <c r="E70">
         <v>18</v>
       </c>
-      <c r="F70" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001561</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M70">
+        <f>(E69-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N70">
+        <f>(F69-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B71">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>18</v>
       </c>
-      <c r="F71" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001561</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M71">
+        <f>(E70-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N71">
+        <f>(F70-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B72">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M72">
+        <f>(E71-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N72">
+        <f>(F71-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="B73">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73">
-        <v>18</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M73">
+        <f>(E72-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N73">
+        <f>(F72-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B74">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
-        <v>18</v>
-      </c>
-      <c r="F74" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M74">
+        <f>(E73-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N74">
+        <f>(F73-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B75">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>18</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M75">
+        <f>(E74-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N75">
+        <f>(F74-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B76">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>18</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M76">
+        <f>(E75-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N76">
+        <f>(F75-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B77">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>18</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M77">
+        <f>(E76-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N77">
+        <f>(F76-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B78">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -3900,51 +4369,2424 @@
       <c r="E78">
         <v>18</v>
       </c>
-      <c r="F78" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M78">
+        <f>(E77-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N78">
+        <f>(F77-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="B79">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>18</v>
       </c>
-      <c r="F79" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000001444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <f t="shared" si="1"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M79">
+        <f>(E78-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N79">
+        <f>(F78-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B80">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80">
+        <v>19</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M80">
+        <f>(E79-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N80">
+        <f>(F79-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M81">
+        <f>(E80-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N81">
+        <f>(F80-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>24</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="1"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M82">
+        <f>(E81-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N82">
+        <f>(F81-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M83">
+        <f>(E82-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N83">
+        <f>(F82-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>23</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M84">
+        <f>(E83-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N84">
+        <f>(F83-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M85">
+        <f>(E84-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N85">
+        <f>(F84-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="1"/>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M86">
+        <f>(E85-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N86">
+        <f>(F85-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>19</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M87">
+        <f>(E86-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N87">
+        <f>(F86-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M88">
+        <f>(E87-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N88">
+        <f>(F87-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>22</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M89">
+        <f>(E88-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N89">
+        <f>(F88-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>21</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M90">
+        <f>(E89-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N90">
+        <f>(F89-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M91">
+        <f>(E90-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N91">
+        <f>(F90-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M92">
+        <f>(E91-$J$3)^2</f>
+        <v>16.100156249999994</v>
+      </c>
+      <c r="N92">
+        <f>(F91-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>23</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M93">
+        <f>(E92-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N93">
+        <f>(F92-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>24</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="1"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M94">
+        <f>(E93-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N94">
+        <f>(F93-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>19</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="1"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M95">
+        <f>(E94-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N95">
+        <f>(F94-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>21</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M96">
+        <f>(E95-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N96">
+        <f>(F95-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>17</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M97">
+        <f>(E96-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N97">
+        <f>(F96-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M98">
+        <f>(E97-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N98">
+        <f>(F97-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M99">
+        <f>(E98-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N99">
+        <f>(F98-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="1"/>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M100">
+        <f>(E99-$J$3)^2</f>
+        <v>25.125156249999993</v>
+      </c>
+      <c r="N100">
+        <f>(F99-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M101">
+        <f>(E100-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N101">
+        <f>(F100-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M102">
+        <f>(E101-$J$3)^2</f>
+        <v>25.125156249999993</v>
+      </c>
+      <c r="N102">
+        <f>(F101-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
         <v>18</v>
       </c>
-      <c r="F80" s="2">
-        <f t="shared" si="3"/>
-        <v>17.600000000000211</v>
+      <c r="F103" s="1">
+        <f t="shared" si="1"/>
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M103">
+        <f>(E102-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N103">
+        <f>(F102-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M104">
+        <f>(E103-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N104">
+        <f>(F103-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>24</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M105">
+        <f>(E104-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N105">
+        <f>(F104-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="1"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M106">
+        <f>(E105-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N106">
+        <f>(F105-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="1"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M107">
+        <f>(E106-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N107">
+        <f>(F106-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>21</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="1"/>
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M108">
+        <f>(E107-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N108">
+        <f>(F107-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>20</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="1"/>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M109">
+        <f>(E108-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N109">
+        <f>(F108-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>25</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="1"/>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M110">
+        <f>(E109-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N110">
+        <f>(F109-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>16</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M111">
+        <f>(E110-$J$3)^2</f>
+        <v>225.37515624999997</v>
+      </c>
+      <c r="N111">
+        <f>(F110-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>23</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M112">
+        <f>(E111-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N112">
+        <f>(F111-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>23</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M113">
+        <f>(E112-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N113">
+        <f>(F112-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>18</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M114">
+        <f>(E113-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N114">
+        <f>(F113-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="1"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M115">
+        <f>(E114-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N115">
+        <f>(F114-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>21</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="1"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M116">
+        <f>(E115-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N116">
+        <f>(F115-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>16</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="1"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M117">
+        <f>(E116-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N117">
+        <f>(F116-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>19</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M118">
+        <f>(E117-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N118">
+        <f>(F117-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>18</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="1"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M119">
+        <f>(E118-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N119">
+        <f>(F118-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>23</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="1"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M120">
+        <f>(E119-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N120">
+        <f>(F119-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="1"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M121">
+        <f>(E120-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N121">
+        <f>(F120-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>17</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M122">
+        <f>(E121-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N122">
+        <f>(F121-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="1"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M123">
+        <f>(E122-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N123">
+        <f>(F122-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>19</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M124">
+        <f>(E123-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N124">
+        <f>(F123-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="1"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M125">
+        <f>(E124-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N125">
+        <f>(F124-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M126">
+        <f>(E125-$J$3)^2</f>
+        <v>225.37515624999997</v>
+      </c>
+      <c r="N126">
+        <f>(F125-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>19</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="1"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M127">
+        <f>(E126-$J$3)^2</f>
+        <v>225.37515624999997</v>
+      </c>
+      <c r="N127">
+        <f>(F126-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>17</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="1"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M128">
+        <f>(E127-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N128">
+        <f>(F127-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>17</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="1"/>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M129">
+        <f>(E128-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N129">
+        <f>(F128-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>24</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="1"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M130">
+        <f>(E129-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N130">
+        <f>(F129-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>16</v>
+      </c>
+      <c r="F131" s="1">
+        <f t="shared" ref="F131:F161" si="2">$H$2+A131*$H$3+B131*$H$4+C131*$H$5+$D$2*$H$6</f>
+        <v>17.761681802986629</v>
+      </c>
+      <c r="M131">
+        <f>(E130-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N131">
+        <f>(F130-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>16</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="2"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M132">
+        <f>(E131-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N132">
+        <f>(F131-$K$3)^2</f>
+        <v>79.510494659315555</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>22</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="2"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M133">
+        <f>(E132-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N133">
+        <f>(F132-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>22</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="2"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M134">
+        <f>(E133-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N134">
+        <f>(F133-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>21</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="2"/>
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M135">
+        <f>(E134-$J$3)^2</f>
+        <v>144.30015624999999</v>
+      </c>
+      <c r="N135">
+        <f>(F134-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>19</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M136">
+        <f>(E135-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N136">
+        <f>(F135-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>20</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="2"/>
+        <v>18.210424955786184</v>
+      </c>
+      <c r="M137">
+        <f>(E136-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N137">
+        <f>(F136-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>19</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="2"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M138">
+        <f>(E137-$J$3)^2</f>
+        <v>100.25015624999999</v>
+      </c>
+      <c r="N138">
+        <f>(F137-$K$3)^2</f>
+        <v>87.71462996873349</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>17</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="2"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M139">
+        <f>(E138-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N139">
+        <f>(F138-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>15</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M140">
+        <f>(E139-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N140">
+        <f>(F139-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>17</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M141">
+        <f>(E140-$J$3)^2</f>
+        <v>25.125156249999993</v>
+      </c>
+      <c r="N141">
+        <f>(F140-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="2"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M142">
+        <f>(E141-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N142">
+        <f>(F141-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>19</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M143">
+        <f>(E142-$J$3)^2</f>
+        <v>64.200156249999992</v>
+      </c>
+      <c r="N143">
+        <f>(F142-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>17</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="2"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M144">
+        <f>(E143-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N144">
+        <f>(F143-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>19</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="2"/>
+        <v>18.10353594488323</v>
+      </c>
+      <c r="M145">
+        <f>(E144-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N145">
+        <f>(F144-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>17</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="2"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M146">
+        <f>(E145-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N146">
+        <f>(F145-$K$3)^2</f>
+        <v>85.723893886865667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>19</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="2"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M147">
+        <f>(E146-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N147">
+        <f>(F146-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>17</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="2"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M148">
+        <f>(E147-$J$3)^2</f>
+        <v>81.225156249999984</v>
+      </c>
+      <c r="N148">
+        <f>(F147-$K$3)^2</f>
+        <v>77.615690000952171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>24</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="2"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M149">
+        <f>(E148-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N149">
+        <f>(F148-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="2"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M150">
+        <f>(E149-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N150">
+        <f>(F149-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="2"/>
+        <v>17.147337359796616</v>
+      </c>
+      <c r="M151">
+        <f>(E150-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N151">
+        <f>(F150-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>23</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="2"/>
+        <v>18.151712676298676</v>
+      </c>
+      <c r="M152">
+        <f>(E151-$J$3)^2</f>
+        <v>16.100156249999994</v>
+      </c>
+      <c r="N152">
+        <f>(F151-$K$3)^2</f>
+        <v>68.931859915761748</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>21</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="2"/>
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M153">
+        <f>(E152-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N153">
+        <f>(F152-$K$3)^2</f>
+        <v>86.618324606501901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="2"/>
+        <v>18.044823665395725</v>
+      </c>
+      <c r="M154">
+        <f>(E153-$J$3)^2</f>
+        <v>121.27515624999998</v>
+      </c>
+      <c r="N154">
+        <f>(F153-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>17</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M155">
+        <f>(E154-$J$3)^2</f>
+        <v>169.32515624999999</v>
+      </c>
+      <c r="N155">
+        <f>(F154-$K$3)^2</f>
+        <v>84.64013991959871</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="2"/>
+        <v>17.596080512596171</v>
+      </c>
+      <c r="M156">
+        <f>(E155-$J$3)^2</f>
+        <v>49.175156249999993</v>
+      </c>
+      <c r="N156">
+        <f>(F155-$K$3)^2</f>
+        <v>70.718181755656019</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>16</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="2"/>
+        <v>17.312938650187071</v>
+      </c>
+      <c r="M157">
+        <f>(E156-$J$3)^2</f>
+        <v>196.35015624999997</v>
+      </c>
+      <c r="N157">
+        <f>(F156-$K$3)^2</f>
+        <v>76.584629500495737</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>16</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="2"/>
+        <v>17.702969523499121</v>
+      </c>
+      <c r="M158">
+        <f>(E157-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N158">
+        <f>(F157-$K$3)^2</f>
+        <v>71.709100184266518</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>16</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="2"/>
+        <v>17.206049639284117</v>
+      </c>
+      <c r="M159">
+        <f>(E158-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N159">
+        <f>(F158-$K$3)^2</f>
+        <v>78.466882763894503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>16</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="2"/>
+        <v>17.254226370699563</v>
+      </c>
+      <c r="M160">
+        <f>(E159-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N160">
+        <f>(F159-$K$3)^2</f>
+        <v>69.910226949407573</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>21</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="2"/>
+        <v>17.654792792083676</v>
+      </c>
+      <c r="M161">
+        <f>(E160-$J$3)^2</f>
+        <v>36.150156249999995</v>
+      </c>
+      <c r="N161">
+        <f>(F160-$K$3)^2</f>
+        <v>70.718181755656019</v>
       </c>
     </row>
     <row r="329" spans="8:13" x14ac:dyDescent="0.25">
@@ -3973,37 +6815,37 @@
       </c>
       <c r="I330">
         <f>SUM(A2:A325)</f>
-        <v>23.500000000000004</v>
+        <v>244</v>
       </c>
       <c r="J330">
         <f>SUM(B2:B325)</f>
-        <v>98.399999999999991</v>
+        <v>250</v>
       </c>
       <c r="K330">
-        <f t="shared" ref="K330:M330" si="4">SUM(C2:C325)</f>
-        <v>213.10000000000014</v>
+        <f t="shared" ref="K330:M330" si="3">SUM(C2:C325)</f>
+        <v>490</v>
       </c>
       <c r="L330">
-        <f t="shared" si="4"/>
-        <v>197</v>
+        <f t="shared" si="3"/>
+        <v>247</v>
       </c>
       <c r="M330">
-        <f t="shared" si="4"/>
-        <v>1390</v>
+        <f t="shared" si="3"/>
+        <v>3163</v>
       </c>
     </row>
     <row r="331" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H331">
         <f>I330</f>
-        <v>23.500000000000004</v>
+        <v>244</v>
       </c>
       <c r="I331">
         <f>SUMPRODUCT(A3:A325,A3:A325)</f>
-        <v>10.139999999999993</v>
+        <v>408</v>
       </c>
       <c r="J331">
         <f>SUMPRODUCT(A3:A325,B3:B325)</f>
-        <v>29.11</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
+++ b/Моделирование систем_/Отчеты/MS4/Output_new.xlsx
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,11 +1024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295385648"/>
-        <c:axId val="295386040"/>
+        <c:axId val="563089784"/>
+        <c:axId val="563090176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295385648"/>
+        <c:axId val="563089784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295386040"/>
+        <c:crossAx val="563090176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295386040"/>
+        <c:axId val="563090176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295385648"/>
+        <c:crossAx val="563089784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2054,7 +2054,7 @@
   <dimension ref="A1:N331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2139,7 @@
         <v>-5.8712279487505903E-2</v>
       </c>
       <c r="J3">
-        <f>SUM(E2:E81)/160</f>
+        <f>(SUM(E2:E81))/160</f>
         <v>9.9875000000000007</v>
       </c>
       <c r="K3">
@@ -2147,11 +2147,11 @@
         <v>8.8448160610728515</v>
       </c>
       <c r="M3">
-        <f>(E2-$J$3)^2</f>
+        <f t="shared" ref="M3:M34" si="1">(E2-$J$3)^2</f>
         <v>64.200156249999992</v>
       </c>
       <c r="N3">
-        <f>(F2-$K$3)^2</f>
+        <f t="shared" ref="N3:N34" si="2">(F2-$K$3)^2</f>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -2179,11 +2179,11 @@
         <v>-0.10688901090295211</v>
       </c>
       <c r="M4">
-        <f>(E3-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N4">
-        <f>(F3-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -2217,11 +2217,11 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <f>(E4-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>225.37515624999997</v>
       </c>
       <c r="N5">
-        <f>(F4-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -2257,11 +2257,11 @@
         <v>77.063586734256972</v>
       </c>
       <c r="M6">
-        <f>(E5-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N6">
-        <f>(F5-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -2286,11 +2286,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M7">
-        <f>(E6-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N7">
-        <f>(F6-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -2318,11 +2318,11 @@
         <v>5</v>
       </c>
       <c r="M8">
-        <f>(E7-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N8">
-        <f>(F7-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -2351,11 +2351,11 @@
         <v>90.128121003847298</v>
       </c>
       <c r="M9">
-        <f>(E8-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>256.40015624999995</v>
       </c>
       <c r="N9">
-        <f>(F8-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -2380,11 +2380,11 @@
         <v>18.10353594488323</v>
       </c>
       <c r="M10">
-        <f>(E9-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N10">
-        <f>(F9-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -2412,11 +2412,11 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <f>(E10-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N11">
-        <f>(F10-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -2445,11 +2445,11 @@
         <v>1.5224952838363839</v>
       </c>
       <c r="M12">
-        <f>(E11-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N12">
-        <f>(F11-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -2474,11 +2474,11 @@
         <v>17.596080512596171</v>
       </c>
       <c r="M13">
-        <f>(E12-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>25.125156249999993</v>
       </c>
       <c r="N13">
-        <f>(F12-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="J14" s="2"/>
       <c r="M14">
-        <f>(E13-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N14">
-        <f>(F13-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -2533,11 +2533,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M15">
-        <f>(E14-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N15">
-        <f>(F14-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -2562,11 +2562,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M16">
-        <f>(E15-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>225.37515624999997</v>
       </c>
       <c r="N16">
-        <f>(F15-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -2591,11 +2591,11 @@
         <v>18.151712676298676</v>
       </c>
       <c r="M17">
-        <f>(E16-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N17">
-        <f>(F16-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -2620,11 +2620,11 @@
         <v>17.654792792083676</v>
       </c>
       <c r="M18">
-        <f>(E17-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N18">
-        <f>(F17-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -2655,11 +2655,11 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <f>(E18-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N19">
-        <f>(F18-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -2692,11 +2692,11 @@
         <v>17.630631858218663</v>
       </c>
       <c r="M20">
-        <f>(E19-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N20">
-        <f>(F19-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -2721,11 +2721,11 @@
         <v>17.206049639284117</v>
       </c>
       <c r="M21">
-        <f>(E20-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N21">
-        <f>(F20-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -2750,11 +2750,11 @@
         <v>18.10353594488323</v>
       </c>
       <c r="M22">
-        <f>(E21-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N22">
-        <f>(F21-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -2779,11 +2779,11 @@
         <v>18.151712676298676</v>
       </c>
       <c r="M23">
-        <f>(E22-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N23">
-        <f>(F22-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -2808,11 +2808,11 @@
         <v>17.254226370699563</v>
       </c>
       <c r="M24">
-        <f>(E23-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N24">
-        <f>(F23-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -2837,11 +2837,11 @@
         <v>17.206049639284117</v>
       </c>
       <c r="M25">
-        <f>(E24-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N25">
-        <f>(F24-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -2866,11 +2866,11 @@
         <v>18.210424955786184</v>
       </c>
       <c r="M26">
-        <f>(E25-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N26">
-        <f>(F25-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -2895,11 +2895,11 @@
         <v>17.702969523499121</v>
       </c>
       <c r="M27">
-        <f>(E26-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N27">
-        <f>(F26-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -2924,11 +2924,11 @@
         <v>17.654792792083676</v>
       </c>
       <c r="M28">
-        <f>(E27-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N28">
-        <f>(F27-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -2953,11 +2953,11 @@
         <v>17.254226370699563</v>
       </c>
       <c r="M29">
-        <f>(E28-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N29">
-        <f>(F28-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -2982,11 +2982,11 @@
         <v>17.254226370699563</v>
       </c>
       <c r="M30">
-        <f>(E29-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N30">
-        <f>(F29-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -3011,11 +3011,11 @@
         <v>17.596080512596171</v>
       </c>
       <c r="M31">
-        <f>(E30-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N31">
-        <f>(F30-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -3040,11 +3040,11 @@
         <v>17.596080512596171</v>
       </c>
       <c r="M32">
-        <f>(E31-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N32">
-        <f>(F31-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -3069,11 +3069,11 @@
         <v>17.206049639284117</v>
       </c>
       <c r="M33">
-        <f>(E32-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N33">
-        <f>(F32-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -3098,11 +3098,11 @@
         <v>18.10353594488323</v>
       </c>
       <c r="M34">
-        <f>(E33-$J$3)^2</f>
+        <f t="shared" si="1"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N34">
-        <f>(F33-$K$3)^2</f>
+        <f t="shared" si="2"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         <v>17.206049639284117</v>
       </c>
       <c r="M35">
-        <f>(E34-$J$3)^2</f>
+        <f t="shared" ref="M35:M66" si="3">(E34-$J$3)^2</f>
         <v>169.32515624999999</v>
       </c>
       <c r="N35">
-        <f>(F34-$K$3)^2</f>
+        <f t="shared" ref="N35:N66" si="4">(F34-$K$3)^2</f>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -3156,11 +3156,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M36">
-        <f>(E35-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N36">
-        <f>(F35-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -3185,11 +3185,11 @@
         <v>17.206049639284117</v>
       </c>
       <c r="M37">
-        <f>(E36-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N37">
-        <f>(F36-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -3214,11 +3214,11 @@
         <v>18.210424955786184</v>
       </c>
       <c r="M38">
-        <f>(E37-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N38">
-        <f>(F37-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -3243,11 +3243,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M39">
-        <f>(E38-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N39">
-        <f>(F38-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -3272,11 +3272,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M40">
-        <f>(E39-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>25.125156249999993</v>
       </c>
       <c r="N40">
-        <f>(F39-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -3301,11 +3301,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M41">
-        <f>(E40-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N41">
-        <f>(F40-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -3330,11 +3330,11 @@
         <v>17.254226370699563</v>
       </c>
       <c r="M42">
-        <f>(E41-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N42">
-        <f>(F41-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -3359,11 +3359,11 @@
         <v>17.761681802986629</v>
       </c>
       <c r="M43">
-        <f>(E42-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N43">
-        <f>(F42-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -3388,11 +3388,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M44">
-        <f>(E43-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N44">
-        <f>(F43-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -3417,11 +3417,11 @@
         <v>17.596080512596171</v>
       </c>
       <c r="M45">
-        <f>(E44-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N45">
-        <f>(F44-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -3446,11 +3446,11 @@
         <v>17.761681802986629</v>
       </c>
       <c r="M46">
-        <f>(E45-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N46">
-        <f>(F45-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -3475,11 +3475,11 @@
         <v>17.312938650187071</v>
       </c>
       <c r="M47">
-        <f>(E46-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N47">
-        <f>(F46-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -3504,11 +3504,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M48">
-        <f>(E47-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N48">
-        <f>(F47-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -3533,11 +3533,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M49">
-        <f>(E48-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N49">
-        <f>(F48-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -3562,11 +3562,11 @@
         <v>17.761681802986629</v>
       </c>
       <c r="M50">
-        <f>(E49-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N50">
-        <f>(F49-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -3591,11 +3591,11 @@
         <v>18.151712676298676</v>
       </c>
       <c r="M51">
-        <f>(E50-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N51">
-        <f>(F50-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -3620,11 +3620,11 @@
         <v>17.702969523499121</v>
       </c>
       <c r="M52">
-        <f>(E51-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N52">
-        <f>(F51-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -3649,11 +3649,11 @@
         <v>18.10353594488323</v>
       </c>
       <c r="M53">
-        <f>(E52-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N53">
-        <f>(F52-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -3678,11 +3678,11 @@
         <v>17.254226370699563</v>
       </c>
       <c r="M54">
-        <f>(E53-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N54">
-        <f>(F53-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -3707,11 +3707,11 @@
         <v>18.210424955786184</v>
       </c>
       <c r="M55">
-        <f>(E54-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N55">
-        <f>(F54-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -3736,11 +3736,11 @@
         <v>18.044823665395725</v>
       </c>
       <c r="M56">
-        <f>(E55-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N56">
-        <f>(F55-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -3765,11 +3765,11 @@
         <v>17.596080512596171</v>
       </c>
       <c r="M57">
-        <f>(E56-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N57">
-        <f>(F56-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -3794,11 +3794,11 @@
         <v>17.761681802986629</v>
       </c>
       <c r="M58">
-        <f>(E57-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N58">
-        <f>(F57-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -3823,11 +3823,11 @@
         <v>17.654792792083676</v>
       </c>
       <c r="M59">
-        <f>(E58-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>289.42515624999999</v>
       </c>
       <c r="N59">
-        <f>(F58-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -3852,11 +3852,11 @@
         <v>17.702969523499121</v>
       </c>
       <c r="M60">
-        <f>(E59-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N60">
-        <f>(F59-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -3881,11 +3881,11 @@
         <v>18.151712676298676</v>
       </c>
       <c r="M61">
-        <f>(E60-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N61">
-        <f>(F60-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -3910,11 +3910,11 @@
         <v>18.210424955786184</v>
       </c>
       <c r="M62">
-        <f>(E61-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N62">
-        <f>(F61-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -3939,11 +3939,11 @@
         <v>18.151712676298676</v>
       </c>
       <c r="M63">
-        <f>(E62-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N63">
-        <f>(F62-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -3968,11 +3968,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M64">
-        <f>(E63-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N64">
-        <f>(F63-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -3997,11 +3997,11 @@
         <v>18.210424955786184</v>
       </c>
       <c r="M65">
-        <f>(E64-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N65">
-        <f>(F64-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4026,11 +4026,11 @@
         <v>17.147337359796616</v>
       </c>
       <c r="M66">
-        <f>(E65-$J$3)^2</f>
+        <f t="shared" si="3"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N66">
-        <f>(F65-$K$3)^2</f>
+        <f t="shared" si="4"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4051,15 +4051,15 @@
         <v>21</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F130" si="1">$H$2+A67*$H$3+B67*$H$4+C67*$H$5+$D$2*$H$6</f>
+        <f t="shared" ref="F67:F130" si="5">$H$2+A67*$H$3+B67*$H$4+C67*$H$5+$D$2*$H$6</f>
         <v>17.596080512596171</v>
       </c>
       <c r="M67">
-        <f>(E66-$J$3)^2</f>
+        <f t="shared" ref="M67:M98" si="6">(E66-$J$3)^2</f>
         <v>36.150156249999995</v>
       </c>
       <c r="N67">
-        <f>(F66-$K$3)^2</f>
+        <f t="shared" ref="N67:N98" si="7">(F66-$K$3)^2</f>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4080,15 +4080,15 @@
         <v>23</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.151712676298676</v>
       </c>
       <c r="M68">
-        <f>(E67-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N68">
-        <f>(F67-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4109,15 +4109,15 @@
         <v>22</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M69">
-        <f>(E68-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N69">
-        <f>(F68-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -4138,15 +4138,15 @@
         <v>18</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M70">
-        <f>(E69-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N70">
-        <f>(F69-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -4167,15 +4167,15 @@
         <v>18</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M71">
-        <f>(E70-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N71">
-        <f>(F70-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -4196,15 +4196,15 @@
         <v>21</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M72">
-        <f>(E71-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N72">
-        <f>(F71-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4225,15 +4225,15 @@
         <v>19</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M73">
-        <f>(E72-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N73">
-        <f>(F72-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4254,15 +4254,15 @@
         <v>19</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M74">
-        <f>(E73-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N74">
-        <f>(F73-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4283,15 +4283,15 @@
         <v>20</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M75">
-        <f>(E74-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N75">
-        <f>(F74-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -4312,15 +4312,15 @@
         <v>22</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M76">
-        <f>(E75-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N76">
-        <f>(F75-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4341,15 +4341,15 @@
         <v>22</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M77">
-        <f>(E76-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N77">
-        <f>(F76-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4370,15 +4370,15 @@
         <v>18</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M78">
-        <f>(E77-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N78">
-        <f>(F77-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4399,15 +4399,15 @@
         <v>18</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M79">
-        <f>(E78-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N79">
-        <f>(F78-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4428,15 +4428,15 @@
         <v>19</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M80">
-        <f>(E79-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N80">
-        <f>(F79-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -4457,15 +4457,15 @@
         <v>22</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M81">
-        <f>(E80-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N81">
-        <f>(F80-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4486,15 +4486,15 @@
         <v>24</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M82">
-        <f>(E81-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N82">
-        <f>(F81-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4515,15 +4515,15 @@
         <v>17</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M83">
-        <f>(E82-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N83">
-        <f>(F82-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -4544,15 +4544,15 @@
         <v>23</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M84">
-        <f>(E83-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N84">
-        <f>(F83-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4573,15 +4573,15 @@
         <v>22</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M85">
-        <f>(E84-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N85">
-        <f>(F84-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4602,15 +4602,15 @@
         <v>17</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.761681802986629</v>
       </c>
       <c r="M86">
-        <f>(E85-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N86">
-        <f>(F85-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4631,15 +4631,15 @@
         <v>19</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M87">
-        <f>(E86-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N87">
-        <f>(F86-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -4660,15 +4660,15 @@
         <v>21</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M88">
-        <f>(E87-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N88">
-        <f>(F87-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4689,15 +4689,15 @@
         <v>22</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M89">
-        <f>(E88-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N89">
-        <f>(F88-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4718,15 +4718,15 @@
         <v>21</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M90">
-        <f>(E89-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N90">
-        <f>(F89-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4747,15 +4747,15 @@
         <v>14</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M91">
-        <f>(E90-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N91">
-        <f>(F90-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -4776,15 +4776,15 @@
         <v>20</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M92">
-        <f>(E91-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>16.100156249999994</v>
       </c>
       <c r="N92">
-        <f>(F91-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4805,15 +4805,15 @@
         <v>23</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M93">
-        <f>(E92-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N93">
-        <f>(F92-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -4834,15 +4834,15 @@
         <v>24</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M94">
-        <f>(E93-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N94">
-        <f>(F93-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4863,15 +4863,15 @@
         <v>19</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M95">
-        <f>(E94-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N95">
-        <f>(F94-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -4892,15 +4892,15 @@
         <v>21</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M96">
-        <f>(E95-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N96">
-        <f>(F95-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -4921,15 +4921,15 @@
         <v>17</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M97">
-        <f>(E96-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N97">
-        <f>(F96-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -4950,15 +4950,15 @@
         <v>22</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M98">
-        <f>(E97-$J$3)^2</f>
+        <f t="shared" si="6"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N98">
-        <f>(F97-$K$3)^2</f>
+        <f t="shared" si="7"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -4979,15 +4979,15 @@
         <v>15</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M99">
-        <f>(E98-$J$3)^2</f>
+        <f t="shared" ref="M99:M130" si="8">(E98-$J$3)^2</f>
         <v>144.30015624999999</v>
       </c>
       <c r="N99">
-        <f>(F98-$K$3)^2</f>
+        <f t="shared" ref="N99:N130" si="9">(F98-$K$3)^2</f>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -5008,15 +5008,15 @@
         <v>20</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.761681802986629</v>
       </c>
       <c r="M100">
-        <f>(E99-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>25.125156249999993</v>
       </c>
       <c r="N100">
-        <f>(F99-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -5037,15 +5037,15 @@
         <v>15</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M101">
-        <f>(E100-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N101">
-        <f>(F100-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -5066,15 +5066,15 @@
         <v>17</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M102">
-        <f>(E101-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>25.125156249999993</v>
       </c>
       <c r="N102">
-        <f>(F101-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -5095,15 +5095,15 @@
         <v>18</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.702969523499121</v>
       </c>
       <c r="M103">
-        <f>(E102-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N103">
-        <f>(F102-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -5124,15 +5124,15 @@
         <v>18</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M104">
-        <f>(E103-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N104">
-        <f>(F103-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -5153,15 +5153,15 @@
         <v>24</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M105">
-        <f>(E104-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N105">
-        <f>(F104-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -5182,15 +5182,15 @@
         <v>20</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M106">
-        <f>(E105-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N106">
-        <f>(F105-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -5211,15 +5211,15 @@
         <v>22</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M107">
-        <f>(E106-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N107">
-        <f>(F106-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -5240,15 +5240,15 @@
         <v>21</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.702969523499121</v>
       </c>
       <c r="M108">
-        <f>(E107-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N108">
-        <f>(F107-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -5269,15 +5269,15 @@
         <v>20</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.761681802986629</v>
       </c>
       <c r="M109">
-        <f>(E108-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N109">
-        <f>(F108-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -5298,15 +5298,15 @@
         <v>25</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.761681802986629</v>
       </c>
       <c r="M110">
-        <f>(E109-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N110">
-        <f>(F109-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -5327,15 +5327,15 @@
         <v>16</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M111">
-        <f>(E110-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>225.37515624999997</v>
       </c>
       <c r="N111">
-        <f>(F110-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -5356,15 +5356,15 @@
         <v>23</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M112">
-        <f>(E111-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N112">
-        <f>(F111-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -5385,15 +5385,15 @@
         <v>23</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M113">
-        <f>(E112-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N113">
-        <f>(F112-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -5414,15 +5414,15 @@
         <v>18</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M114">
-        <f>(E113-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N114">
-        <f>(F113-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -5443,15 +5443,15 @@
         <v>18</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M115">
-        <f>(E114-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N115">
-        <f>(F114-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -5472,15 +5472,15 @@
         <v>21</v>
       </c>
       <c r="F116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M116">
-        <f>(E115-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N116">
-        <f>(F115-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -5501,15 +5501,15 @@
         <v>16</v>
       </c>
       <c r="F117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M117">
-        <f>(E116-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N117">
-        <f>(F116-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -5530,15 +5530,15 @@
         <v>19</v>
       </c>
       <c r="F118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M118">
-        <f>(E117-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N118">
-        <f>(F117-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -5559,15 +5559,15 @@
         <v>18</v>
       </c>
       <c r="F119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M119">
-        <f>(E118-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N119">
-        <f>(F118-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -5588,15 +5588,15 @@
         <v>23</v>
       </c>
       <c r="F120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M120">
-        <f>(E119-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N120">
-        <f>(F119-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -5617,15 +5617,15 @@
         <v>18</v>
       </c>
       <c r="F121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M121">
-        <f>(E120-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N121">
-        <f>(F120-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -5646,15 +5646,15 @@
         <v>17</v>
       </c>
       <c r="F122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M122">
-        <f>(E121-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N122">
-        <f>(F121-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -5675,15 +5675,15 @@
         <v>23</v>
       </c>
       <c r="F123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M123">
-        <f>(E122-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N123">
-        <f>(F122-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -5704,15 +5704,15 @@
         <v>19</v>
       </c>
       <c r="F124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M124">
-        <f>(E123-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N124">
-        <f>(F123-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -5733,15 +5733,15 @@
         <v>25</v>
       </c>
       <c r="F125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M125">
-        <f>(E124-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N125">
-        <f>(F124-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -5762,15 +5762,15 @@
         <v>25</v>
       </c>
       <c r="F126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M126">
-        <f>(E125-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>225.37515624999997</v>
       </c>
       <c r="N126">
-        <f>(F125-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -5791,15 +5791,15 @@
         <v>19</v>
       </c>
       <c r="F127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M127">
-        <f>(E126-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>225.37515624999997</v>
       </c>
       <c r="N127">
-        <f>(F126-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -5820,15 +5820,15 @@
         <v>17</v>
       </c>
       <c r="F128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M128">
-        <f>(E127-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N128">
-        <f>(F127-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -5849,15 +5849,15 @@
         <v>17</v>
       </c>
       <c r="F129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.761681802986629</v>
       </c>
       <c r="M129">
-        <f>(E128-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N129">
-        <f>(F128-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -5878,15 +5878,15 @@
         <v>24</v>
       </c>
       <c r="F130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M130">
-        <f>(E129-$J$3)^2</f>
+        <f t="shared" si="8"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N130">
-        <f>(F129-$K$3)^2</f>
+        <f t="shared" si="9"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -5907,15 +5907,15 @@
         <v>16</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" ref="F131:F161" si="2">$H$2+A131*$H$3+B131*$H$4+C131*$H$5+$D$2*$H$6</f>
+        <f t="shared" ref="F131:F161" si="10">$H$2+A131*$H$3+B131*$H$4+C131*$H$5+$D$2*$H$6</f>
         <v>17.761681802986629</v>
       </c>
       <c r="M131">
-        <f>(E130-$J$3)^2</f>
+        <f t="shared" ref="M131:M161" si="11">(E130-$J$3)^2</f>
         <v>196.35015624999997</v>
       </c>
       <c r="N131">
-        <f>(F130-$K$3)^2</f>
+        <f t="shared" ref="N131:N161" si="12">(F130-$K$3)^2</f>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -5936,15 +5936,15 @@
         <v>16</v>
       </c>
       <c r="F132" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M132">
-        <f>(E131-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N132">
-        <f>(F131-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>79.510494659315555</v>
       </c>
     </row>
@@ -5965,15 +5965,15 @@
         <v>22</v>
       </c>
       <c r="F133" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M133">
-        <f>(E132-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N133">
-        <f>(F132-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -5994,15 +5994,15 @@
         <v>22</v>
       </c>
       <c r="F134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M134">
-        <f>(E133-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N134">
-        <f>(F133-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -6023,15 +6023,15 @@
         <v>21</v>
       </c>
       <c r="F135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.151712676298676</v>
       </c>
       <c r="M135">
-        <f>(E134-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>144.30015624999999</v>
       </c>
       <c r="N135">
-        <f>(F134-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -6052,15 +6052,15 @@
         <v>19</v>
       </c>
       <c r="F136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M136">
-        <f>(E135-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N136">
-        <f>(F135-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -6081,15 +6081,15 @@
         <v>20</v>
       </c>
       <c r="F137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.210424955786184</v>
       </c>
       <c r="M137">
-        <f>(E136-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N137">
-        <f>(F136-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6110,15 +6110,15 @@
         <v>19</v>
       </c>
       <c r="F138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M138">
-        <f>(E137-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>100.25015624999999</v>
       </c>
       <c r="N138">
-        <f>(F137-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>87.71462996873349</v>
       </c>
     </row>
@@ -6139,15 +6139,15 @@
         <v>17</v>
       </c>
       <c r="F139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M139">
-        <f>(E138-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N139">
-        <f>(F138-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -6168,15 +6168,15 @@
         <v>15</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M140">
-        <f>(E139-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N140">
-        <f>(F139-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -6197,15 +6197,15 @@
         <v>17</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M141">
-        <f>(E140-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>25.125156249999993</v>
       </c>
       <c r="N141">
-        <f>(F140-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6226,15 +6226,15 @@
         <v>18</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M142">
-        <f>(E141-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N142">
-        <f>(F141-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6255,15 +6255,15 @@
         <v>19</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M143">
-        <f>(E142-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>64.200156249999992</v>
       </c>
       <c r="N143">
-        <f>(F142-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -6284,15 +6284,15 @@
         <v>17</v>
       </c>
       <c r="F144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M144">
-        <f>(E143-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N144">
-        <f>(F143-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6313,15 +6313,15 @@
         <v>19</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.10353594488323</v>
       </c>
       <c r="M145">
-        <f>(E144-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N145">
-        <f>(F144-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -6342,15 +6342,15 @@
         <v>17</v>
       </c>
       <c r="F146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M146">
-        <f>(E145-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N146">
-        <f>(F145-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>85.723893886865667</v>
       </c>
     </row>
@@ -6371,15 +6371,15 @@
         <v>19</v>
       </c>
       <c r="F147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M147">
-        <f>(E146-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N147">
-        <f>(F146-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -6400,15 +6400,15 @@
         <v>17</v>
       </c>
       <c r="F148" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M148">
-        <f>(E147-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>81.225156249999984</v>
       </c>
       <c r="N148">
-        <f>(F147-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>77.615690000952171</v>
       </c>
     </row>
@@ -6429,15 +6429,15 @@
         <v>24</v>
       </c>
       <c r="F149" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M149">
-        <f>(E148-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N149">
-        <f>(F148-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -6458,15 +6458,15 @@
         <v>24</v>
       </c>
       <c r="F150" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M150">
-        <f>(E149-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N150">
-        <f>(F149-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -6487,15 +6487,15 @@
         <v>14</v>
       </c>
       <c r="F151" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.147337359796616</v>
       </c>
       <c r="M151">
-        <f>(E150-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N151">
-        <f>(F150-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -6516,15 +6516,15 @@
         <v>23</v>
       </c>
       <c r="F152" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.151712676298676</v>
       </c>
       <c r="M152">
-        <f>(E151-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>16.100156249999994</v>
       </c>
       <c r="N152">
-        <f>(F151-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>68.931859915761748</v>
       </c>
     </row>
@@ -6545,15 +6545,15 @@
         <v>21</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.702969523499121</v>
       </c>
       <c r="M153">
-        <f>(E152-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N153">
-        <f>(F152-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>86.618324606501901</v>
       </c>
     </row>
@@ -6574,15 +6574,15 @@
         <v>23</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>18.044823665395725</v>
       </c>
       <c r="M154">
-        <f>(E153-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>121.27515624999998</v>
       </c>
       <c r="N154">
-        <f>(F153-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -6603,15 +6603,15 @@
         <v>17</v>
       </c>
       <c r="F155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M155">
-        <f>(E154-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>169.32515624999999</v>
       </c>
       <c r="N155">
-        <f>(F154-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>84.64013991959871</v>
       </c>
     </row>
@@ -6632,15 +6632,15 @@
         <v>24</v>
       </c>
       <c r="F156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.596080512596171</v>
       </c>
       <c r="M156">
-        <f>(E155-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>49.175156249999993</v>
       </c>
       <c r="N156">
-        <f>(F155-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6661,15 +6661,15 @@
         <v>16</v>
       </c>
       <c r="F157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.312938650187071</v>
       </c>
       <c r="M157">
-        <f>(E156-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>196.35015624999997</v>
       </c>
       <c r="N157">
-        <f>(F156-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>76.584629500495737</v>
       </c>
     </row>
@@ -6690,15 +6690,15 @@
         <v>16</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.702969523499121</v>
       </c>
       <c r="M158">
-        <f>(E157-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N158">
-        <f>(F157-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>71.709100184266518</v>
       </c>
     </row>
@@ -6719,15 +6719,15 @@
         <v>16</v>
       </c>
       <c r="F159" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.206049639284117</v>
       </c>
       <c r="M159">
-        <f>(E158-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N159">
-        <f>(F158-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>78.466882763894503</v>
       </c>
     </row>
@@ -6748,15 +6748,15 @@
         <v>16</v>
       </c>
       <c r="F160" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.254226370699563</v>
       </c>
       <c r="M160">
-        <f>(E159-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N160">
-        <f>(F159-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>69.910226949407573</v>
       </c>
     </row>
@@ -6777,15 +6777,15 @@
         <v>21</v>
       </c>
       <c r="F161" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>17.654792792083676</v>
       </c>
       <c r="M161">
-        <f>(E160-$J$3)^2</f>
+        <f t="shared" si="11"/>
         <v>36.150156249999995</v>
       </c>
       <c r="N161">
-        <f>(F160-$K$3)^2</f>
+        <f t="shared" si="12"/>
         <v>70.718181755656019</v>
       </c>
     </row>
@@ -6822,15 +6822,15 @@
         <v>250</v>
       </c>
       <c r="K330">
-        <f t="shared" ref="K330:M330" si="3">SUM(C2:C325)</f>
+        <f t="shared" ref="K330:M330" si="13">SUM(C2:C325)</f>
         <v>490</v>
       </c>
       <c r="L330">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>247</v>
       </c>
       <c r="M330">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3163</v>
       </c>
     </row>
